--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件驳回件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件驳回件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8487</v>
+        <v>6530</v>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>918</v>
       </c>
       <c r="D2" t="n">
-        <v>7103</v>
+        <v>12158</v>
       </c>
       <c r="E2" t="n">
-        <v>4886</v>
+        <v>10270</v>
       </c>
       <c r="F2" t="n">
-        <v>549</v>
+        <v>853</v>
       </c>
       <c r="G2" t="n">
-        <v>3958</v>
+        <v>8563</v>
       </c>
       <c r="H2" t="n">
-        <v>32811</v>
+        <v>46110</v>
       </c>
       <c r="I2" t="n">
-        <v>1463</v>
+        <v>1733</v>
       </c>
       <c r="J2" t="n">
-        <v>1699</v>
+        <v>2036</v>
       </c>
       <c r="K2" t="n">
-        <v>961</v>
+        <v>818</v>
       </c>
       <c r="L2" t="n">
-        <v>1463</v>
+        <v>427</v>
       </c>
       <c r="M2" t="n">
-        <v>1742</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8293</v>
+        <v>5106</v>
       </c>
       <c r="C3" t="n">
-        <v>845</v>
+        <v>412</v>
       </c>
       <c r="D3" t="n">
-        <v>6925</v>
+        <v>12383</v>
       </c>
       <c r="E3" t="n">
-        <v>4886</v>
+        <v>12329</v>
       </c>
       <c r="F3" t="n">
-        <v>746</v>
+        <v>544</v>
       </c>
       <c r="G3" t="n">
-        <v>5025</v>
+        <v>7194</v>
       </c>
       <c r="H3" t="n">
-        <v>36265</v>
+        <v>43684</v>
       </c>
       <c r="I3" t="n">
-        <v>1569</v>
+        <v>1430</v>
       </c>
       <c r="J3" t="n">
-        <v>2010</v>
+        <v>1667</v>
       </c>
       <c r="K3" t="n">
-        <v>1249</v>
+        <v>647</v>
       </c>
       <c r="L3" t="n">
-        <v>2994</v>
+        <v>274</v>
       </c>
       <c r="M3" t="n">
-        <v>1723</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8896</v>
+        <v>4574</v>
       </c>
       <c r="C4" t="n">
-        <v>1466</v>
+        <v>399</v>
       </c>
       <c r="D4" t="n">
-        <v>7206</v>
+        <v>14234</v>
       </c>
       <c r="E4" t="n">
-        <v>6702</v>
+        <v>12627</v>
       </c>
       <c r="F4" t="n">
-        <v>833</v>
+        <v>410</v>
       </c>
       <c r="G4" t="n">
-        <v>6405</v>
+        <v>6149</v>
       </c>
       <c r="H4" t="n">
-        <v>39503</v>
+        <v>43715</v>
       </c>
       <c r="I4" t="n">
-        <v>1724</v>
+        <v>1399</v>
       </c>
       <c r="J4" t="n">
-        <v>2279</v>
+        <v>1618</v>
       </c>
       <c r="K4" t="n">
-        <v>1219</v>
+        <v>567</v>
       </c>
       <c r="L4" t="n">
-        <v>815</v>
+        <v>257</v>
       </c>
       <c r="M4" t="n">
-        <v>1958</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6740</v>
+        <v>5687</v>
       </c>
       <c r="C5" t="n">
-        <v>1228</v>
+        <v>492</v>
       </c>
       <c r="D5" t="n">
-        <v>6986</v>
+        <v>13709</v>
       </c>
       <c r="E5" t="n">
-        <v>6140</v>
+        <v>15932</v>
       </c>
       <c r="F5" t="n">
-        <v>859</v>
+        <v>411</v>
       </c>
       <c r="G5" t="n">
-        <v>7115</v>
+        <v>7255</v>
       </c>
       <c r="H5" t="n">
-        <v>35701</v>
+        <v>49352</v>
       </c>
       <c r="I5" t="n">
-        <v>1730</v>
+        <v>1745</v>
       </c>
       <c r="J5" t="n">
-        <v>1883</v>
+        <v>1575</v>
       </c>
       <c r="K5" t="n">
-        <v>1088</v>
+        <v>685</v>
       </c>
       <c r="L5" t="n">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="M5" t="n">
-        <v>1698</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6177</v>
+        <v>8189</v>
       </c>
       <c r="C6" t="n">
-        <v>874</v>
+        <v>760</v>
       </c>
       <c r="D6" t="n">
-        <v>6103</v>
+        <v>23811</v>
       </c>
       <c r="E6" t="n">
-        <v>6162</v>
+        <v>41337</v>
       </c>
       <c r="F6" t="n">
-        <v>1032</v>
+        <v>423</v>
       </c>
       <c r="G6" t="n">
-        <v>5662</v>
+        <v>8567</v>
       </c>
       <c r="H6" t="n">
-        <v>32209</v>
+        <v>90683</v>
       </c>
       <c r="I6" t="n">
-        <v>1519</v>
+        <v>2285</v>
       </c>
       <c r="J6" t="n">
-        <v>1742</v>
+        <v>1939</v>
       </c>
       <c r="K6" t="n">
-        <v>1129</v>
+        <v>852</v>
       </c>
       <c r="L6" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="M6" t="n">
-        <v>1634</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5656</v>
+        <v>14897</v>
       </c>
       <c r="C7" t="n">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="D7" t="n">
-        <v>17175</v>
+        <v>44734</v>
       </c>
       <c r="E7" t="n">
-        <v>6515</v>
+        <v>83387</v>
       </c>
       <c r="F7" t="n">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>6291</v>
+        <v>17081</v>
       </c>
       <c r="H7" t="n">
-        <v>43995</v>
+        <v>175464</v>
       </c>
       <c r="I7" t="n">
-        <v>1450</v>
+        <v>3729</v>
       </c>
       <c r="J7" t="n">
-        <v>1959</v>
+        <v>4559</v>
       </c>
       <c r="K7" t="n">
-        <v>922</v>
+        <v>1170</v>
       </c>
       <c r="L7" t="n">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="M7" t="n">
-        <v>1722</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6723</v>
+        <v>24375</v>
       </c>
       <c r="C8" t="n">
-        <v>952</v>
+        <v>1130</v>
       </c>
       <c r="D8" t="n">
-        <v>8388</v>
+        <v>68782</v>
       </c>
       <c r="E8" t="n">
-        <v>8312</v>
+        <v>130046</v>
       </c>
       <c r="F8" t="n">
-        <v>1130</v>
+        <v>925</v>
       </c>
       <c r="G8" t="n">
-        <v>10688</v>
+        <v>19188</v>
       </c>
       <c r="H8" t="n">
-        <v>43039</v>
+        <v>264268</v>
       </c>
       <c r="I8" t="n">
-        <v>1611</v>
+        <v>5611</v>
       </c>
       <c r="J8" t="n">
-        <v>2473</v>
+        <v>5912</v>
       </c>
       <c r="K8" t="n">
-        <v>923</v>
+        <v>1733</v>
       </c>
       <c r="L8" t="n">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="M8" t="n">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6112</v>
-      </c>
-      <c r="C9" t="n">
-        <v>773</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10138</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10051</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1075</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11743</v>
-      </c>
-      <c r="H9" t="n">
-        <v>46648</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1821</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1794</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1094</v>
-      </c>
-      <c r="L9" t="n">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6530</v>
-      </c>
-      <c r="C10" t="n">
-        <v>918</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12158</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10270</v>
-      </c>
-      <c r="F10" t="n">
-        <v>853</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8563</v>
-      </c>
-      <c r="H10" t="n">
-        <v>46110</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1733</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2036</v>
-      </c>
-      <c r="K10" t="n">
-        <v>818</v>
-      </c>
-      <c r="L10" t="n">
-        <v>427</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5106</v>
-      </c>
-      <c r="C11" t="n">
-        <v>412</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12383</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12329</v>
-      </c>
-      <c r="F11" t="n">
-        <v>544</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7194</v>
-      </c>
-      <c r="H11" t="n">
-        <v>43684</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1430</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1667</v>
-      </c>
-      <c r="K11" t="n">
-        <v>647</v>
-      </c>
-      <c r="L11" t="n">
-        <v>274</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4574</v>
-      </c>
-      <c r="C12" t="n">
-        <v>399</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14234</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12627</v>
-      </c>
-      <c r="F12" t="n">
-        <v>410</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6149</v>
-      </c>
-      <c r="H12" t="n">
-        <v>43715</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1399</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K12" t="n">
-        <v>567</v>
-      </c>
-      <c r="L12" t="n">
-        <v>257</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5687</v>
-      </c>
-      <c r="C13" t="n">
-        <v>492</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13709</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15932</v>
-      </c>
-      <c r="F13" t="n">
-        <v>411</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7255</v>
-      </c>
-      <c r="H13" t="n">
-        <v>49352</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1745</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1575</v>
-      </c>
-      <c r="K13" t="n">
-        <v>685</v>
-      </c>
-      <c r="L13" t="n">
-        <v>98</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8189</v>
-      </c>
-      <c r="C14" t="n">
-        <v>760</v>
-      </c>
-      <c r="D14" t="n">
-        <v>23811</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41337</v>
-      </c>
-      <c r="F14" t="n">
-        <v>423</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8567</v>
-      </c>
-      <c r="H14" t="n">
-        <v>90683</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2285</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K14" t="n">
-        <v>852</v>
-      </c>
-      <c r="L14" t="n">
-        <v>151</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14897</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44734</v>
-      </c>
-      <c r="E15" t="n">
-        <v>83387</v>
-      </c>
-      <c r="F15" t="n">
-        <v>750</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17081</v>
-      </c>
-      <c r="H15" t="n">
-        <v>175464</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4559</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1170</v>
-      </c>
-      <c r="L15" t="n">
-        <v>148</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>24375</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1130</v>
-      </c>
-      <c r="D16" t="n">
-        <v>68782</v>
-      </c>
-      <c r="E16" t="n">
-        <v>130046</v>
-      </c>
-      <c r="F16" t="n">
-        <v>925</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19188</v>
-      </c>
-      <c r="H16" t="n">
-        <v>264268</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5611</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5912</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1733</v>
-      </c>
-      <c r="L16" t="n">
-        <v>252</v>
-      </c>
-      <c r="M16" t="n">
         <v>6314</v>
       </c>
     </row>
